--- a/docs/ImpressiveApp SMS Templates.xlsx
+++ b/docs/ImpressiveApp SMS Templates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Template Name</t>
   </si>
@@ -22,52 +22,58 @@
     <t>Template String</t>
   </si>
   <si>
-    <t>Create New Customer</t>
-  </si>
-  <si>
-    <t>Hi ##Customer##, Your Profile has been created successfully. Please login to place orders.</t>
-  </si>
-  <si>
-    <t>Create New Order</t>
-  </si>
-  <si>
-    <t>Change Account Status</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your profile status has been updated to ##status##. </t>
   </si>
   <si>
-    <t>You Order has  been created successfully. Your Order Id is ##Id##.</t>
-  </si>
-  <si>
-    <t>Your referral ##Referred## ( ##Mobno## ) has placed total orders worth Rs. 100 or more. Rs. 100 has been credited in your Wallet.</t>
-  </si>
-  <si>
-    <t>Thank you for making payment of Rs. ##Cost##. Your Wallet has been updated.</t>
-  </si>
-  <si>
-    <t>Cost of Order with Order Id: ##OrderId## is Rs. ##cost##. Rs. ##cost## has been debited from your Wallet.</t>
-  </si>
-  <si>
-    <t>Referral Processed</t>
-  </si>
-  <si>
-    <t>Hi ##Customer##, Thank you for using referral code ##referralcode##. Your Profile has been created successfully. Please login to place orders.</t>
-  </si>
-  <si>
-    <t>##Customer## ( ##Mobno## ) has used your referral code ##referralcode##. Rs. 100 will be credited in your Wallet once ##Customer## has placed total orders worth Rs. 100 or more.</t>
-  </si>
-  <si>
-    <t>Create New Customer with Referral Code</t>
-  </si>
-  <si>
-    <t>Referred Customer</t>
-  </si>
-  <si>
-    <t>Wallet updated by Customer</t>
-  </si>
-  <si>
-    <t>Wallet updated by Admin</t>
+    <t>create_new_customer</t>
+  </si>
+  <si>
+    <t>create_new_customer_with_referralcode</t>
+  </si>
+  <si>
+    <t>create_new_order</t>
+  </si>
+  <si>
+    <t>change_account_status</t>
+  </si>
+  <si>
+    <t>referred_customer</t>
+  </si>
+  <si>
+    <t>wallet_updated_by_customer</t>
+  </si>
+  <si>
+    <t>wallet_updated_by admin</t>
+  </si>
+  <si>
+    <t>referral_processed</t>
+  </si>
+  <si>
+    <t>Hi ##customer##, Your Profile has been created successfully. Please login to place orders.</t>
+  </si>
+  <si>
+    <t>Hi ##customer##, Thank you for using referral code ##referralcode##. Your Profile has been created successfully. Please login to place orders.</t>
+  </si>
+  <si>
+    <t>You Order has  been created successfully. Your Order Id is ##id##.</t>
+  </si>
+  <si>
+    <t>##customer## ( ##mobno## ) has used your referral code ##referralcode##. Rs. 100 will be credited in your Wallet once ##customer## has placed total orders worth Rs. 100 or more.</t>
+  </si>
+  <si>
+    <t>Thank you for making payment of Rs. ##cost##. Your Wallet has been updated.</t>
+  </si>
+  <si>
+    <t>Cost of Order with Order Id: ##orderid## is Rs. ##cost##. Rs. ##cost## has been debited from your Wallet.</t>
+  </si>
+  <si>
+    <t>Your referral ##referred## ( ##mobno## ) has placed total orders worth Rs. 100 or more. Rs. 100 has been credited in your Wallet.</t>
+  </si>
+  <si>
+    <t>create_new_order_with_promocode</t>
+  </si>
+  <si>
+    <t>You Order has  been created successfully. Promocode ##promocode## applied. Your Order Id is ##id##.</t>
   </si>
 </sst>
 </file>
@@ -410,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="163.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -432,15 +438,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -448,50 +454,58 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ImpressiveApp SMS Templates.xlsx
+++ b/docs/ImpressiveApp SMS Templates.xlsx
@@ -22,9 +22,6 @@
     <t>Template String</t>
   </si>
   <si>
-    <t xml:space="preserve">Your profile status has been updated to ##status##. </t>
-  </si>
-  <si>
     <t>create_new_customer</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>wallet_updated_by_customer</t>
   </si>
   <si>
-    <t>wallet_updated_by admin</t>
-  </si>
-  <si>
     <t>referral_processed</t>
   </si>
   <si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>You Order has  been created successfully. Promocode ##promocode## applied. Your Order Id is ##id##.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Profile status has been updated to ##status##. </t>
+  </si>
+  <si>
+    <t>wallet_updated_by_admin</t>
   </si>
 </sst>
 </file>
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,74 +438,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
